--- a/KatalonProjects/timezoneData.xlsx
+++ b/KatalonProjects/timezoneData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\NewArrivals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -101,7 +101,7 @@
     <t>No Ordering</t>
   </si>
   <si>
-    <t>test17</t>
+    <t>test14</t>
   </si>
 </sst>
 </file>

--- a/KatalonProjects/timezoneData.xlsx
+++ b/KatalonProjects/timezoneData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="29">
   <si>
     <t>orderType</t>
   </si>
@@ -98,10 +98,19 @@
     <t>BOEblast</t>
   </si>
   <si>
-    <t>No Ordering</t>
-  </si>
-  <si>
-    <t>test14</t>
+    <t xml:space="preserve"> 04/25/2019 12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05/07/2019 12:00</t>
+  </si>
+  <si>
+    <t>No Ordering1</t>
+  </si>
+  <si>
+    <t>No Ordering2</t>
+  </si>
+  <si>
+    <t>test13</t>
   </si>
 </sst>
 </file>
@@ -434,17 +443,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
@@ -498,7 +507,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -542,14 +551,14 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1">
-        <v>43580.5</v>
-      </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
@@ -575,18 +584,18 @@
         <v>20</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -630,28 +639,28 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>20</v>
@@ -660,7 +669,7 @@
         <v>20</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>19</v>
@@ -674,45 +683,89 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/KatalonProjects/timezoneData.xlsx
+++ b/KatalonProjects/timezoneData.xlsx
@@ -110,7 +110,7 @@
     <t>No Ordering2</t>
   </si>
   <si>
-    <t>test13</t>
+    <t>test14</t>
   </si>
 </sst>
 </file>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KatalonProjects/timezoneData.xlsx
+++ b/KatalonProjects/timezoneData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="27">
   <si>
     <t>orderType</t>
   </si>
@@ -56,9 +56,6 @@
     <t xml:space="preserve"> 05/22/2019 00:00</t>
   </si>
   <si>
-    <t>serverTarget</t>
-  </si>
-  <si>
     <t>BOPersonal</t>
   </si>
   <si>
@@ -108,28 +105,19 @@
   </si>
   <si>
     <t>No Ordering2</t>
-  </si>
-  <si>
-    <t>test14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,15 +140,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -443,42 +428,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="10" max="11" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="9" max="10" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>12</v>
@@ -490,10 +476,10 @@
         <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>16</v>
@@ -501,272 +487,251 @@
       <c r="M1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>28</v>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>19</v>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>19</v>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>28</v>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonProjects/timezoneData.xlsx
+++ b/KatalonProjects/timezoneData.xlsx
@@ -44,18 +44,6 @@
     <t>Employee Retail Store Ordering</t>
   </si>
   <si>
-    <t xml:space="preserve"> 04/17/2019 7:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 05/08/2019 7:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 05/03/2019 12:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 05/22/2019 00:00</t>
-  </si>
-  <si>
     <t>BOPersonal</t>
   </si>
   <si>
@@ -95,16 +83,28 @@
     <t>BOEblast</t>
   </si>
   <si>
-    <t xml:space="preserve"> 04/25/2019 12:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 05/07/2019 12:00</t>
-  </si>
-  <si>
     <t>No Ordering1</t>
   </si>
   <si>
     <t>No Ordering2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 09/06/2019 7:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 09/20/2019 12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 09/12/2019 00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 09/24/2019 00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 09/25/2019 7:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10/09/2019 00:00</t>
   </si>
 </sst>
 </file>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,37 +455,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -493,81 +493,81 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -575,81 +575,81 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -657,40 +657,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -698,40 +698,40 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonProjects/timezoneData.xlsx
+++ b/KatalonProjects/timezoneData.xlsx
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KatalonProjects/timezoneData.xlsx
+++ b/KatalonProjects/timezoneData.xlsx
@@ -89,22 +89,22 @@
     <t>No Ordering2</t>
   </si>
   <si>
-    <t xml:space="preserve"> 09/06/2019 7:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 09/20/2019 12:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 09/12/2019 00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 09/24/2019 00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 09/25/2019 7:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10/09/2019 00:00</t>
+    <t xml:space="preserve"> 10/16/2019 7:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11/01/2019 12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11/06/2019 7:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11/20/2019 00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11/05/2019 00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10/24/2019 00:00</t>
   </si>
 </sst>
 </file>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,7 +534,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -616,7 +616,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -657,7 +657,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -698,7 +698,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>

--- a/KatalonProjects/timezoneData.xlsx
+++ b/KatalonProjects/timezoneData.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="28">
   <si>
     <t>orderType</t>
   </si>
@@ -105,6 +106,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 10/24/2019 00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/24/2020 7:00</t>
   </si>
 </sst>
 </file>
@@ -428,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +497,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -526,211 +530,6 @@
         <v>14</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -738,4 +537,306 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/KatalonProjects/timezoneData.xlsx
+++ b/KatalonProjects/timezoneData.xlsx
@@ -89,9 +89,6 @@
     <t>No Ordering2</t>
   </si>
   <si>
-    <t xml:space="preserve"> 10/16/2019 7:00</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 11/01/2019 12:00</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 10/24/2019 00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1/24/2020 7:00</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +493,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -534,7 +534,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -575,7 +575,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -616,7 +616,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -657,7 +657,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -698,7 +698,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
